--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.764</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.909</v>
+        <v>18.523</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.882</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.174</v>
+        <v>19.902</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.272</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.684</v>
+        <v>15.021</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.68183885620905</v>
+        <v>-2.326477644647763</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.69514883958006</v>
+        <v>20.40999064295169</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.78157516234303</v>
+        <v>24.67543425982829</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.71564760498624</v>
+        <v>-2.2009280314352</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.42931987511984</v>
+        <v>10.74900189733726</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.70697591015882</v>
+        <v>16.51751800267567</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.53236778792736</v>
+        <v>8.046134370404586</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39.72352014189393</v>
+        <v>19.33240500929332</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.62802998843805</v>
+        <v>23.54609566798749</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.59570924844382</v>
+        <v>23.3895803116398</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>46.23373778886032</v>
+        <v>29.99140832976345</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48.85901575023354</v>
+        <v>33.94568457872192</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.13461888803658</v>
+        <v>5.797476866549086</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>47.69436537820559</v>
+        <v>21.83513971373604</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>51.15328719895475</v>
+        <v>28.23356146566964</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.30381387724748</v>
+        <v>-0.8158288970651775</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.22941388451414</v>
+        <v>26.22801830836109</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.29007029388431</v>
+        <v>32.00862204275346</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.28357627220633</v>
+        <v>-4.995622258452627</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.90261874399834</v>
+        <v>12.63100087925819</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37.15222114804752</v>
+        <v>19.67378130511004</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.01346578124364</v>
+        <v>9.212649238121367</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>40.12695819937409</v>
+        <v>24.24572310360069</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.0080228511392</v>
+        <v>29.58478409361961</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.98234768593217</v>
+        <v>29.80869384403599</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>46.52841194273059</v>
+        <v>39.47949125522614</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49.12311154102076</v>
+        <v>44.47629437326832</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.54354848323203</v>
+        <v>8.557068333920895</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.95325714377623</v>
+        <v>30.54764902983143</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.36970670528869</v>
+        <v>38.10687442677062</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.85750641367213</v>
+        <v>1.967420343959247</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.76358780033947</v>
+        <v>29.56405325133876</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.83780273693658</v>
+        <v>37.08658376594619</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.27285990628499</v>
+        <v>-0.876608669117914</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.86839661460007</v>
+        <v>17.61419011722895</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.13388193487958</v>
+        <v>26.67146100793051</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.2232239000904</v>
+        <v>15.86629022176043</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.31972022925685</v>
+        <v>31.63605159780217</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.21258867616744</v>
+        <v>38.63297264961901</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>45.20462045361249</v>
+        <v>41.57923659198615</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.75436942478615</v>
+        <v>51.88717619639647</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.36048033824814</v>
+        <v>58.16216982497724</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.74630309171471</v>
+        <v>18.16434979763292</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>55.1102757166874</v>
+        <v>41.2541610993586</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>58.55579702231354</v>
+        <v>51.11425841701053</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.51333937530428</v>
+        <v>1.889168332231144</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.66178299698218</v>
+        <v>27.34753943877084</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.72522987166134</v>
+        <v>30.87883719612206</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.5115850444212</v>
+        <v>3.919923252052691</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.37621679788496</v>
+        <v>19.7592425274388</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.62803512536639</v>
+        <v>24.71926440387386</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.31874572587196</v>
+        <v>14.84375870414804</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>37.63509837369119</v>
+        <v>28.70172737088241</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.51769131770219</v>
+        <v>32.21514081240304</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.34395578967396</v>
+        <v>31.23771938398328</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.12635573609189</v>
+        <v>38.58434717541069</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.73329105011077</v>
+        <v>41.96039490579444</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.69402589877549</v>
+        <v>10.62211550986703</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45.48679173940366</v>
+        <v>29.89073951222719</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.90085334330077</v>
+        <v>35.34447859349893</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.0641279690052</v>
+        <v>0.7980984695993421</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.12177889515107</v>
+        <v>30.55587021766535</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.15903936688005</v>
+        <v>35.54194360297558</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.00574480952749</v>
+        <v>-1.622722046990674</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.77232240649046</v>
+        <v>18.84746584866889</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.99561216179144</v>
+        <v>25.02200294048417</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.72271499821701</v>
+        <v>13.55161731193292</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.95854204822325</v>
+        <v>31.11495136656421</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.81732531420748</v>
+        <v>35.70005779730647</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.65629202893395</v>
+        <v>35.28080968258692</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>44.34284539624175</v>
+        <v>45.6266231430257</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>46.91831130627879</v>
+        <v>50.00533826621613</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.03477219689037</v>
+        <v>11.17946312658291</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.67248488466159</v>
+        <v>36.34933494677392</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>49.04326447422413</v>
+        <v>42.91702473759237</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.23079419537774</v>
+        <v>3.201446210907086</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.27076579298205</v>
+        <v>33.38712312452036</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.32523210972549</v>
+        <v>40.15209102893149</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.63410212511985</v>
+        <v>2.023416711129155</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.37936730654521</v>
+        <v>23.21985124741159</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.62245128145673</v>
+        <v>31.48063035002278</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.59197873039356</v>
+        <v>19.5794814201746</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.8125952878169</v>
+        <v>37.76771426396051</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.68644949501456</v>
+        <v>44.06061187414254</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43.53229199058955</v>
+        <v>46.0833842555556</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.22631536887553</v>
+        <v>57.01869812839361</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.81847938820282</v>
+        <v>62.72854679189743</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.88042366562206</v>
+        <v>19.95944588800121</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.4749971203566</v>
+        <v>46.0874480742649</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.88130891286138</v>
+        <v>55.01290427183258</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.51333937530428</v>
+        <v>0.7930634282542854</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.66178299698218</v>
+        <v>26.08689871190142</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.72522987166134</v>
+        <v>29.54658389631975</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.5115850444212</v>
+        <v>2.631820943380959</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.37621679788496</v>
+        <v>18.2550602528394</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.62803512536639</v>
+        <v>23.15645274294825</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.31874572587196</v>
+        <v>13.55468069882267</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>37.63509837369119</v>
+        <v>27.2253690451729</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.51769131770219</v>
+        <v>30.68065104100681</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.34395578967396</v>
+        <v>30.00799264410547</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.12635573609189</v>
+        <v>37.27115180499808</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.73329105011077</v>
+        <v>40.5801647198289</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.69402589877549</v>
+        <v>9.598776491713432</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45.48679173940366</v>
+        <v>28.63620627597169</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.90085334330077</v>
+        <v>34.01112100966205</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.0641279690052</v>
+        <v>0.8662504471700849</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.12177889515107</v>
+        <v>30.47669452210931</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.15903936688005</v>
+        <v>35.3793966608217</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.00574480952749</v>
+        <v>-1.610931924908737</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.77232240649046</v>
+        <v>18.65629220748167</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.99561216179144</v>
+        <v>24.76266921497178</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.72271499821701</v>
+        <v>13.5837589633427</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.95854204822325</v>
+        <v>30.97260589458101</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.81732531420748</v>
+        <v>35.48955730326963</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.65629202893395</v>
+        <v>35.33156559358893</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.34284539624175</v>
+        <v>45.58945673766471</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.91831130627879</v>
+        <v>49.90127435264763</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.03477219689037</v>
+        <v>11.40681747296127</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.67248488466159</v>
+        <v>36.35657103712705</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.04326447422413</v>
+        <v>42.8343069469863</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.23079419537774</v>
+        <v>3.466773129735184</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.27076579298205</v>
+        <v>33.52621674727318</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.32523210972549</v>
+        <v>40.20638023936006</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.63410212511985</v>
+        <v>2.252878217759346</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.37936730654521</v>
+        <v>23.26807521601678</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.62245128145673</v>
+        <v>31.46133192916739</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.59197873039356</v>
+        <v>19.8256168902984</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.8125952878169</v>
+        <v>37.85935917899641</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.68644949501456</v>
+        <v>44.08390865419959</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.53229199058955</v>
+        <v>46.3402940813578</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.22631536887553</v>
+        <v>57.20451499006963</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.81847938820282</v>
+        <v>62.84877853956456</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.88042366562206</v>
+        <v>20.37146562678852</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.4749971203566</v>
+        <v>46.30456514286016</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.88130891286138</v>
+        <v>55.13861253045691</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.24354953929702</v>
+        <v>-7.043483992999072</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.26079972612697</v>
+        <v>15.12574379399446</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.3519831912907</v>
+        <v>19.19645739673439</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>18.96728725869766</v>
+        <v>-7.231368715255183</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.68498295637814</v>
+        <v>5.137559286463187</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.96765300283299</v>
+        <v>10.68001973629417</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.63883533445544</v>
+        <v>2.638858761396673</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.83324399314088</v>
+        <v>13.41617026911143</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.74186760515096</v>
+        <v>17.44332633029223</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.82890125818085</v>
+        <v>17.27737086019683</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.47295920241346</v>
+        <v>23.66412040262881</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.1056066964084</v>
+        <v>27.52282272455241</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.53167737663359</v>
+        <v>0.2599914997532515</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.09819692636449</v>
+        <v>15.6317915372978</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.56455654988811</v>
+        <v>21.78545021568642</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.91936530003809</v>
+        <v>-5.594463210431162</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.84877372875642</v>
+        <v>20.78503074002521</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.91409190288696</v>
+        <v>26.39284409221493</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.59160105179802</v>
+        <v>-10.21177991874354</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.21451865928931</v>
+        <v>6.726042471855692</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.46902488135375</v>
+        <v>13.56787485556955</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.17709506176729</v>
+        <v>3.655131663636826</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.29373131802464</v>
+        <v>18.08523223486612</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.17882201535278</v>
+        <v>23.25987994989108</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.27124997677367</v>
+        <v>23.49154755577871</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.82318899929642</v>
+        <v>32.90434127972126</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.42510388477532</v>
+        <v>37.81274551387908</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.99491853567015</v>
+        <v>2.875429625916166</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.41114987677633</v>
+        <v>24.07466575990347</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.83485128928892</v>
+        <v>31.42261013227445</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.81071875496988</v>
+        <v>-2.334402202975387</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.72214484930345</v>
+        <v>24.64601741820509</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.80153154767204</v>
+        <v>31.96650640794989</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.93426455490246</v>
+        <v>-5.705375664423933</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.5354177330202</v>
+        <v>12.14791506198609</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.80638599726484</v>
+        <v>20.9768077723863</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.75069328800134</v>
+        <v>10.74679655747075</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.85174052682911</v>
+        <v>25.95866150933306</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.74910701043814</v>
+        <v>32.76454454796899</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.85268105644673</v>
+        <v>35.61901988824077</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.41025119866423</v>
+        <v>45.67855966547906</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>50.02418045177799</v>
+        <v>51.85610628287868</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.54774381076987</v>
+        <v>12.80319736296216</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.92095200362537</v>
+        <v>35.15513994555221</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.37472333028608</v>
+        <v>44.77067079254297</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.94186469848884</v>
+        <v>1.488646293015506</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.96089601159267</v>
+        <v>25.10101176157866</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.0424517774258</v>
+        <v>29.19273058695542</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.9207089960469</v>
+        <v>2.064119324359861</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.64073276859361</v>
+        <v>15.99976150169243</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.91303219848562</v>
+        <v>21.54877690982629</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.71899000168026</v>
+        <v>12.70582405939545</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.91533823714518</v>
+        <v>24.85405860628627</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.81536925856046</v>
+        <v>28.89104357252857</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.78516793486477</v>
+        <v>28.48301633256641</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.43122711335925</v>
+        <v>35.45855008983354</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.05074864529541</v>
+        <v>39.2665358561067</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.3301885759283</v>
+        <v>10.08533655011991</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.8995390740596</v>
+        <v>27.19019093218564</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50.35053487883042</v>
+        <v>33.359610309782</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.58678290671713</v>
+        <v>4.869043421275997</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.51802400022561</v>
+        <v>32.75604338570244</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.57379108168494</v>
+        <v>38.2899070605193</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.5125197875787</v>
+        <v>1.139530111439178</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.13782313300114</v>
+        <v>19.71013741554849</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.38205402478816</v>
+        <v>26.45120529505353</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>32.22443046988869</v>
+        <v>15.88377239973262</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.34304448530088</v>
+        <v>31.74437271372145</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.21961883057118</v>
+        <v>36.83576267933617</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.19566331522996</v>
+        <v>36.97283885944133</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.74965579659263</v>
+        <v>46.9866486030792</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.33856899706801</v>
+        <v>51.78579818486645</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.762449592793</v>
+        <v>14.98363292046969</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>47.18163438345169</v>
+        <v>37.99618963791785</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.59011780520117</v>
+        <v>45.24654536821757</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.16976295596707</v>
+        <v>6.554506976680216</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.08192688965171</v>
+        <v>34.94800651550163</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.15192839244071</v>
+        <v>42.22214467081032</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.53483855285447</v>
+        <v>4.015796644320371</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.13713345059506</v>
+        <v>23.40298315279131</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.39796116719938</v>
+        <v>32.16186783113442</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.46856139677202</v>
+        <v>21.26278144575212</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.57058383058749</v>
+        <v>37.81773334996741</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.4595539751993</v>
+        <v>44.56646081530587</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.45307162487472</v>
+        <v>47.3627865789239</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>53.01130937362885</v>
+        <v>58.02183438025742</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>55.61235472804429</v>
+        <v>64.09205995863412</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.00022341573163</v>
+        <v>23.24878684817351</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>54.37448189452279</v>
+        <v>47.31589901290612</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>57.81319587229751</v>
+        <v>56.8672726901751</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-37.49280274871419</v>
+        <v>2.416085390747629</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-29.20688436575866</v>
+        <v>27.23490845263363</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-27.08904618119049</v>
+        <v>30.58033605747675</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-40.92434036321982</v>
+        <v>4.254029427021635</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-31.91184180945553</v>
+        <v>19.8297500877118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-29.60104796287265</v>
+        <v>24.52815904705476</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-35.35291665463306</v>
+        <v>15.08494065352072</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-27.91451650963943</v>
+        <v>28.69750009879959</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-25.98225123153066</v>
+        <v>32.01992215858459</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-28.68369073369325</v>
+        <v>31.07670108176451</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-19.75494654012081</v>
+        <v>38.36999668960628</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-17.08349294479722</v>
+        <v>41.6298063956737</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-30.43317699058036</v>
+        <v>11.10537872253868</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-16.41088597059811</v>
+        <v>29.95641967563682</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-12.90563677091703</v>
+        <v>35.15784084024959</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-36.20902317232072</v>
+        <v>7.579886840554376</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-28.01441633366374</v>
+        <v>36.63861074649665</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-25.92329766519602</v>
+        <v>41.30678001919235</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-39.67143661062844</v>
+        <v>5.113636974009008</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-30.75751342800857</v>
+        <v>25.26376126864163</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-28.47579694703195</v>
+        <v>31.03715069952286</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-34.17497483489132</v>
+        <v>20.30645327130835</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-26.8175044506149</v>
+        <v>37.58575734156555</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-24.90952695883301</v>
+        <v>41.86301904129725</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-27.61744027431461</v>
+        <v>41.48300329029411</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-18.78465898066245</v>
+        <v>51.7199267081627</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-16.14520962762824</v>
+        <v>55.89496481773264</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-29.36166078437659</v>
+        <v>18.06717633005572</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-15.49540827314602</v>
+        <v>42.74488210870159</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-12.03421081640429</v>
+        <v>48.91155968138887</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-27.72638923807299</v>
+        <v>8.971817927400823</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-19.55326117296747</v>
+        <v>38.4381086319321</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-17.44597972596807</v>
+        <v>44.80084609465525</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-30.66868980651967</v>
+        <v>7.447486893116221</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-21.78033462436138</v>
+        <v>28.29763319222457</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-19.47993717248306</v>
+        <v>36.05709238010968</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-24.90522002140529</v>
+        <v>25.01633284089327</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-17.56644216540152</v>
+        <v>42.89304888765122</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-15.64436218126833</v>
+        <v>48.795703322127</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-18.37358406270338</v>
+        <v>50.77779074341775</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-9.538324593601679</v>
+        <v>61.61367924052915</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-6.883702080921417</v>
+        <v>67.03133195124838</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-20.18765505503007</v>
+        <v>25.40444829705702</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-6.370877018236904</v>
+        <v>51.01229503430365</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.875937223808542</v>
+        <v>59.42682241815822</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-39.7704377436991</v>
+        <v>-5.668088220858959</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-31.48767766185016</v>
+        <v>16.90408426436878</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-29.34939444385184</v>
+        <v>20.61513852196226</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-43.21272630641712</v>
+        <v>-4.991120101503704</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-34.20425784999154</v>
+        <v>8.054361609992341</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-31.87098781472064</v>
+        <v>13.22053902983292</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-37.67712946120869</v>
+        <v>4.934877847364831</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-30.24171560522162</v>
+        <v>16.33677050136964</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-28.29061259482747</v>
+        <v>20.03339841754195</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-30.89913568298979</v>
+        <v>19.88938265653034</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-21.98028259567518</v>
+        <v>26.26545615949083</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-19.28358243337234</v>
+        <v>29.83109428852973</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-32.53115100071184</v>
+        <v>1.982942972390674</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-18.51492464833799</v>
+        <v>18.08114066775312</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-14.97673339909212</v>
+        <v>23.76655086983763</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-38.50266535211589</v>
+        <v>-3.269090286349719</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-30.31114603397847</v>
+        <v>23.62766272676745</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-28.19955697760675</v>
+        <v>28.83646418800897</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-41.97686550955871</v>
+        <v>-6.743198556843506</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-33.06687652324232</v>
+        <v>10.97677418950491</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-30.76267628615367</v>
+        <v>17.41812785263541</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-36.51648789649902</v>
+        <v>7.256568914993915</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-29.1619292687594</v>
+        <v>22.4095059437557</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-27.23510939972349</v>
+        <v>27.23274084850653</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-29.85011049395104</v>
+        <v>27.23131952174047</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-21.02709085298239</v>
+        <v>36.62108584332321</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-18.36234398995484</v>
+        <v>41.23096365224333</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-31.47687106798053</v>
+        <v>5.700348299364366</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-17.61656830063945</v>
+        <v>27.7291246434422</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-14.12236780833272</v>
+        <v>34.57692746932513</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-29.96141616613264</v>
+        <v>0.5493600928102111</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-21.79219664739926</v>
+        <v>27.97490573026218</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-19.66670091468347</v>
+        <v>34.88084150041715</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-32.91943633977261</v>
+        <v>-1.660806807434106</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-24.03596130238957</v>
+        <v>16.88252215702371</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-21.71547087222041</v>
+        <v>25.30307418967039</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-27.19279621743718</v>
+        <v>14.78483689573901</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-19.857693427476</v>
+        <v>30.64564412653926</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-17.91876452473725</v>
+        <v>37.09463869767319</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-20.55802286346128</v>
+        <v>39.56276512456004</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-11.73358359061404</v>
+        <v>49.54094048571683</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-9.056164075855399</v>
+        <v>55.40913025065142</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-22.25914627700941</v>
+        <v>15.97845797292887</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-8.449871180284141</v>
+        <v>39.05722020584912</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-4.925710635070153</v>
+        <v>48.15122469213428</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-11.55128310789305</v>
+        <v>-7.462149936010796</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-3.517730010113233</v>
+        <v>16.04253782990711</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1.433772047119248</v>
+        <v>20.03273376461288</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-14.01540022186879</v>
+        <v>-7.162418846132692</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-5.279336020219397</v>
+        <v>6.555874843054774</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-3.004663535011822</v>
+        <v>12.01185784003468</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-8.042184035262842</v>
+        <v>3.155876933251825</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-0.8322919169873515</v>
+        <v>15.11853195743131</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1.069730856339</v>
+        <v>19.06447884921919</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-2.052486398366675</v>
+        <v>18.88967711839194</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6.604474188665236</v>
+        <v>25.77490987486256</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.228422762176315</v>
+        <v>29.57003705967929</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-4.37872716651605</v>
+        <v>0.6649382025513368</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.214116713715214</v>
+        <v>17.55082142974158</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.6685506156062</v>
+        <v>23.60583277193816</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-10.5064935849427</v>
+        <v>-5.480125503755385</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-2.560691215179403</v>
+        <v>22.31003474948041</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.5025807837017098</v>
+        <v>27.77740902185505</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-13.0090022353799</v>
+        <v>-9.600421350295402</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-4.367621468805531</v>
+        <v>8.763632883399964</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-2.121079782349241</v>
+        <v>15.44927227404945</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-7.113260303757905</v>
+        <v>4.848258091698277</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.01893148434258762</v>
+        <v>20.52922563161986</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1.897443952224165</v>
+        <v>25.56155528704222</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1.228540672816003</v>
+        <v>25.92221463435142</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>7.336513596854807</v>
+        <v>35.86086199259427</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>9.929731347408151</v>
+        <v>40.67655469941798</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.545177781527549</v>
+        <v>4.093453572158909</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.897565574160232</v>
+        <v>26.90281382141687</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.30940449943751</v>
+        <v>34.07933368071891</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-2.980178696506606</v>
+        <v>-3.26039806079163</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>4.945165836166566</v>
+        <v>25.06831533189901</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>7.017517762320871</v>
+        <v>32.29377960225305</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.004526378118179</v>
+        <v>-6.161609274260524</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.612365532439533</v>
+        <v>13.0556915236148</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>5.875534643258369</v>
+        <v>21.78077883967957</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.133069023145353</v>
+        <v>10.82968359921608</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.24741417033411</v>
+        <v>27.2381794889781</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.13835097924516</v>
+        <v>33.94527959466989</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>7.008279211626395</v>
+        <v>36.92496760693207</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.57591569075919</v>
+        <v>47.51787447006248</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>18.18136727454359</v>
+        <v>53.61973810574479</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>4.643965577882106</v>
+        <v>12.93416085703587</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.03954799774154</v>
+        <v>36.83763323608356</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.48162228286559</v>
+        <v>46.33682264754243</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-10.31978977503505</v>
+        <v>9.884710757846975</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2.180555172518169</v>
+        <v>35.46069061035821</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.1005294191875947</v>
+        <v>38.97778320238048</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-12.59826742003963</v>
+        <v>12.60097011593055</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-3.744311859588144</v>
+        <v>28.76618801381723</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1.474878095143751</v>
+        <v>33.73378630362951</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-6.556096735606566</v>
+        <v>24.0089693004625</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.7515685830018413</v>
+        <v>38.14956409908955</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2.649318452889815</v>
+        <v>41.66519795580174</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-0.5850968410186326</v>
+        <v>40.81247503384589</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>8.184855007038692</v>
+        <v>48.20761898963055</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.80867741279769</v>
+        <v>51.5780120522444</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-3.032194601033702</v>
+        <v>20.25143203592163</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.74301661763457</v>
+        <v>39.78663569428053</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14.18447791123828</v>
+        <v>45.26348744376861</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-9.357770517882194</v>
+        <v>8.263127749297535</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.308505642004235</v>
+        <v>38.07903614145214</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.7453801602512513</v>
+        <v>42.88814309964054</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-11.67832197004254</v>
+        <v>6.350905106332785</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-2.921490486383711</v>
+        <v>27.10025036972693</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-0.6804968840265175</v>
+        <v>33.11224512029653</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-5.716266090404766</v>
+        <v>21.94184334068497</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1.511636233368883</v>
+        <v>39.75141108546786</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>3.385630298215915</v>
+        <v>44.19161038726057</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.1525384209816494</v>
+        <v>43.90835725229276</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>8.827864934771426</v>
+        <v>54.24689185036296</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.42038467850678</v>
+        <v>58.54501442365158</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-2.280397522659797</v>
+        <v>19.96567519027007</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.34114618154081</v>
+        <v>45.34218930354348</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.73953379830877</v>
+        <v>51.73183218986146</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-1.739390380692988</v>
+        <v>9.789346689821549</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>6.287409123363112</v>
+        <v>39.99505277556952</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.35611161531731</v>
+        <v>46.52729234010364</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-3.583212184928485</v>
+        <v>8.999727742755873</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>5.146904089645979</v>
+        <v>30.43116247514324</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.405057187644857</v>
+        <v>38.45803905383387</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2.622779905399909</v>
+        <v>26.93756754645883</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>9.831043865959565</v>
+        <v>45.3297315378645</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.71790997793609</v>
+        <v>51.4226010073963</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>8.478810615814112</v>
+        <v>53.5928635688561</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.15463452653469</v>
+        <v>64.52493879804551</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>19.76099609928702</v>
+        <v>70.08180055703158</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.996410123105456</v>
+        <v>27.67406231619163</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>19.56676657943446</v>
+        <v>53.96541434714709</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.99644951149586</v>
+        <v>62.63389601323838</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-17.17162037881689</v>
+        <v>-9.052235620237088</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-9.224919644103004</v>
+        <v>13.351919145041</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-7.209595811125531</v>
+        <v>17.00470885206992</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-19.71692930162046</v>
+        <v>-8.635638105234186</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-11.07229243703214</v>
+        <v>4.476801096850451</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-8.872145584105986</v>
+        <v>9.500011019776291</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-14.01541210300552</v>
+        <v>0.7535358481040113</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-6.879991389860258</v>
+        <v>12.21371546877272</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-5.040804156283322</v>
+        <v>15.8210895156874</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-8.054143892026225</v>
+        <v>15.44496043490269</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.4959985427195832</v>
+        <v>21.87747778728427</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.042527931239682</v>
+        <v>25.31500682062246</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-10.35439419781124</v>
+        <v>-2.616672837617411</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.093978368588246</v>
+        <v>13.6279192214665</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.429823837561479</v>
+        <v>19.14054614165649</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-16.1952185248656</v>
+        <v>-7.687603436745601</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-8.336816136842394</v>
+        <v>18.96739514272682</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-6.34705906336945</v>
+        <v>24.17992805416965</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-18.78057166027151</v>
+        <v>-11.01256235584132</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-10.23129509328843</v>
+        <v>6.682910486831126</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-8.059041545543884</v>
+        <v>13.04981474348301</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-13.15712336223179</v>
+        <v>2.281151048869937</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-6.100008488994952</v>
+        <v>17.42055565062349</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-4.284100322708348</v>
+        <v>22.21233628350422</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-7.296456475612253</v>
+        <v>22.0468267592863</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.16057663791166</v>
+        <v>31.44139352403615</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>3.676359982238353</v>
+        <v>35.93546087445688</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-9.582267706861948</v>
+        <v>0.4227021713007773</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3.715300808945905</v>
+        <v>22.47484755778376</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>7.008861742544596</v>
+        <v>29.25581453806938</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-8.148090823199844</v>
+        <v>-4.276251123409931</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-0.3080361314462152</v>
+        <v>22.84007507873168</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>1.698195419292503</v>
+        <v>29.78814095847094</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-10.24114102042997</v>
+        <v>-6.225483951523088</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-1.71379439659016</v>
+        <v>12.21505544208985</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0.4775556796763496</v>
+        <v>20.60725123756797</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-4.360844849261092</v>
+        <v>9.378492282650186</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>2.680461766305982</v>
+        <v>25.161788824795</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>4.51091001921526</v>
+        <v>31.61680523084901</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1.480291743803271</v>
+        <v>33.89619884819933</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>9.944127212608272</v>
+        <v>43.83119518047945</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>12.47589105390378</v>
+        <v>49.63244254721292</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.8654969459960782</v>
+        <v>10.33022172677791</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.38812601938704</v>
+        <v>33.33889600535622</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.71578285351161</v>
+        <v>42.41539376127717</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.642347541309334</v>
+        <v>-1.971597626613146</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>11.65493332685849</v>
+        <v>22.39584484086555</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.68019805164001</v>
+        <v>25.67577749497536</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1.773933186942799</v>
+        <v>-0.7756873811402194</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.49043608524265</v>
+        <v>14.1980624892825</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.70071690831534</v>
+        <v>18.82124470981852</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.984503821303186</v>
+        <v>9.589233238034062</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.17871190849402</v>
+        <v>22.68301517693223</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.02647098079593</v>
+        <v>25.94008822693644</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.41635617543532</v>
+        <v>25.11032029963958</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.05136609812155</v>
+        <v>32.20467626018097</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.6108418335564</v>
+        <v>35.36983405447083</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.43561064236456</v>
+        <v>5.351548640178601</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.99732400039679</v>
+        <v>23.62634432246396</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>27.348828449324</v>
+        <v>28.70632188976089</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.422240570125034</v>
+        <v>2.890462500643377</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>12.34565432112501</v>
+        <v>31.50318594489411</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>14.34511144733434</v>
+        <v>36.24554369396434</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2.507205123101166</v>
+        <v>0.1161888497916088</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>11.12739314853</v>
+        <v>19.64848467544535</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>13.30954922996992</v>
+        <v>25.50123051701809</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.634299369978947</v>
+        <v>14.79963086999264</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>15.74942282535789</v>
+        <v>31.54733604118586</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.57371179022241</v>
+        <v>35.88940950032154</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>13.9701666854783</v>
+        <v>35.56221050219118</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.51105559567103</v>
+        <v>45.60534800949428</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.03948650635708</v>
+        <v>49.76012731826845</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.01039055687513</v>
+        <v>12.30045651808531</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.41978545952626</v>
+        <v>36.37613023372775</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.72860796020116</v>
+        <v>42.60679950594736</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>12.08912543464975</v>
+        <v>5.218426722491383</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.99588116291534</v>
+        <v>34.2814709496992</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.0131660831215</v>
+        <v>40.75408231034223</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.65697653771603</v>
+        <v>3.57212188120144</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.25709748757529</v>
+        <v>23.84829392579063</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.45973790063465</v>
+        <v>31.73689150821267</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.03624016911809</v>
+        <v>20.6044158354337</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>24.13710023715561</v>
+        <v>37.99354199408914</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.97705491995281</v>
+        <v>43.99829451515342</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.36694772828292</v>
+        <v>45.98540570894275</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.916427707899</v>
+        <v>56.62324110575719</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.46229053141982</v>
+        <v>62.08462862575199</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.36062771944401</v>
+        <v>20.73431707421466</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.72902272343333</v>
+        <v>45.782261670192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.07436536474636</v>
+        <v>54.31250119020385</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.57154496526835</v>
+        <v>-8.435569840916308</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.49360857980729</v>
+        <v>14.22941457267975</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.5089589792959</v>
+        <v>17.59887410679039</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.44062196838155</v>
+        <v>-7.726347638934808</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.05858921581058</v>
+        <v>5.441665388582891</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.2577939772502</v>
+        <v>10.210329763114</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.99065087506013</v>
+        <v>1.914963212777273</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.10351029054918</v>
+        <v>13.43619390003392</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.9420258238695</v>
+        <v>16.80269815990064</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.92389096041583</v>
+        <v>16.20480749179989</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.46265838658135</v>
+        <v>22.51657775118597</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.01037522263267</v>
+        <v>25.8000651160666</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.44321643243716</v>
+        <v>-1.958469127824721</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.85294491157666</v>
+        <v>14.29249566761491</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.18620849150058</v>
+        <v>19.51581214028489</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.09460420541998</v>
+        <v>-9.550290691245959</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.92819673132781</v>
+        <v>17.22845233089522</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.91801392760992</v>
+        <v>22.14384861322217</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.90881094645731</v>
+        <v>-13.13773352880535</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.43122731454565</v>
+        <v>4.456685966423626</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.60259674906698</v>
+        <v>10.55593320516187</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.3704142436949</v>
+        <v>0.5530384793375624</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.40481009317691</v>
+        <v>15.61103539339425</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.22010073109034</v>
+        <v>20.14898776318729</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.2147378381166</v>
+        <v>19.86522739761417</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.66004811342606</v>
+        <v>29.07043908610663</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.17702780302545</v>
+        <v>33.40858900849953</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.7622347527664</v>
+        <v>-1.716520604151583</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.02085403727449</v>
+        <v>20.17789422545665</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.3118820018524</v>
+        <v>26.6455223322351</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.36688494460426</v>
+        <v>-4.86038061569214</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.18493776396411</v>
+        <v>22.4702908975804</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.19132065620443</v>
+        <v>29.06576730882967</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.64151141296862</v>
+        <v>-7.203386965984709</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.14507687171286</v>
+        <v>11.23809427759271</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.33556615608575</v>
+        <v>19.31492230512185</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.34702706936341</v>
+        <v>8.918320611222621</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.36814556867915</v>
+        <v>24.70905038069063</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.19797473983844</v>
+        <v>30.86246995925895</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.19278531462497</v>
+        <v>32.86077738036843</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.64752206596609</v>
+        <v>42.64993071741376</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.180674157654</v>
+        <v>48.27743668752022</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>37.7015539490953</v>
+        <v>9.206562414259768</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.92106842326697</v>
+        <v>32.17467544158669</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.24654918228629</v>
+        <v>40.87707132882262</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.79191537238956</v>
+        <v>-15.37190493901453</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.53674726965586</v>
+        <v>5.988266656657217</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.50527365038736</v>
+        <v>9.100160484002437</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.823645058005873</v>
+        <v>-15.4214221522681</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.24837649319894</v>
+        <v>-3.300541506517838</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.39661768247194</v>
+        <v>1.122764776431328</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.762020347066596</v>
+        <v>-6.608000051249217</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.71551592810527</v>
+        <v>3.990494177235385</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.51129368440593</v>
+        <v>7.096052326901928</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.04876854120102</v>
+        <v>6.661822740468267</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.39626045464112</v>
+        <v>12.63324053557424</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.88574011767043</v>
+        <v>15.76264470493003</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.224701743154775</v>
+        <v>-10.36902954369527</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.33335834430613</v>
+        <v>4.68325242180134</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.58966185946884</v>
+        <v>9.532342521234911</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.525127621846174</v>
+        <v>-13.71034596481176</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.18352935892525</v>
+        <v>11.64636258331259</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.12702345740027</v>
+        <v>16.31624320246864</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.511828816532741</v>
+        <v>-17.80506040318754</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.843202264597373</v>
+        <v>-1.388992826590243</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.96414187241155</v>
+        <v>4.386067861152789</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.368513538632357</v>
+        <v>-4.965766104157296</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.24535995150504</v>
+        <v>9.065032202163401</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.01836205379487</v>
+        <v>13.36148439553744</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>12.56285305586481</v>
+        <v>13.20975706542847</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.81903556084713</v>
+        <v>22.01091030560578</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.27834381823809</v>
+        <v>26.18478509421302</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.759893140731897</v>
+        <v>-7.196411445503902</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.7208897464</v>
+        <v>13.33003304718515</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.93575258498669</v>
+        <v>19.46448004955159</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>11.27694052240471</v>
+        <v>-9.014983736346487</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>18.92127211634781</v>
+        <v>16.91931338146359</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.88184528818972</v>
+        <v>23.21949556989098</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>9.743507604700156</v>
+        <v>-11.94704267217608</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>18.05778640187921</v>
+        <v>5.336727533639593</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.19841919152051</v>
+        <v>13.03303306812708</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.85504120132816</v>
+        <v>3.292460921969091</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.71996262610749</v>
+        <v>18.07484255327542</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>24.508005837035</v>
+        <v>23.93856832223046</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.03890662722253</v>
+        <v>25.95147773498202</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.30606310795855</v>
+        <v>35.32664348922848</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.78218212934237</v>
+        <v>40.75845174324139</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.18068164385068</v>
+        <v>3.511644943837918</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.1055454778004</v>
+        <v>25.12519737204221</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.35566345181392</v>
+        <v>33.43096414630277</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-11.13097887660141</v>
+        <v>-2.541235943899423</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.10296292759768</v>
+        <v>20.35706482495548</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1.010910064400683</v>
+        <v>24.5029210884591</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-13.54084676759664</v>
+        <v>-2.512184604015641</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-4.81104058036285</v>
+        <v>10.48632466015801</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-2.527470763261469</v>
+        <v>16.14936471720224</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-7.553585124445853</v>
+        <v>7.884497991174584</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-0.3487534863619501</v>
+        <v>19.21710477862282</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1.560717724219572</v>
+        <v>23.32687536274658</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1.550550942309094</v>
+        <v>23.12968144765277</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>7.097601441851026</v>
+        <v>29.71229797950598</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>9.731289384449902</v>
+        <v>33.59389704431017</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-3.865924799076517</v>
+        <v>5.43554931742041</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.717479271359288</v>
+        <v>21.53615738707904</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.18501121772348</v>
+        <v>27.80673160256666</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-10.11147564092466</v>
+        <v>-3.384805355438115</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-2.171128165822068</v>
+        <v>23.78862090609277</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-0.1049038377783731</v>
+        <v>29.44816770464235</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-12.56084594867732</v>
+        <v>-7.859678135444053</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-3.92562710054213</v>
+        <v>9.777974583784967</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1.670176013130906</v>
+        <v>16.71137665295313</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-6.651561258994015</v>
+        <v>6.492155342438089</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>0.4756480288933531</v>
+        <v>21.53464384288083</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>2.36161785674971</v>
+        <v>26.76597850821084</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.7530155368171947</v>
+        <v>27.00910276224137</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>7.803342469430923</v>
+        <v>36.65062951951581</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>10.40633276855999</v>
+        <v>41.5791969531823</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3.058263021606436</v>
+        <v>5.727670966328576</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>10.3751719504813</v>
+        <v>27.74522500796941</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>13.80015206900554</v>
+        <v>35.17083194756987</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-2.604552874644142</v>
+        <v>0.05033127932320269</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>5.31479200035885</v>
+        <v>27.79607855672918</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>7.394245680063392</v>
+        <v>35.21270538107436</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-4.57997167173999</v>
+        <v>-3.085951830952869</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>4.030140730783401</v>
+        <v>15.4382118744048</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>6.301148953705656</v>
+        <v>24.40893102537225</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.569749682582689</v>
+        <v>13.85059265633501</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>8.678611171629619</v>
+        <v>29.65054926589112</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>10.57611561124364</v>
+        <v>36.55651230844195</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.457159656125469</v>
+        <v>39.4914410195837</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.01540649136891</v>
+        <v>49.77174075325802</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.62953574887293</v>
+        <v>56.00027563915233</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>5.103632409834809</v>
+        <v>16.00425046938414</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.48889812738567</v>
+        <v>39.14636314025572</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.94239441361299</v>
+        <v>48.89485218607287</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.12643026430705</v>
+        <v>1.726516831583709</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.08875670536159</v>
+        <v>25.55989802161825</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.10022951143292</v>
+        <v>29.08342058219323</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>18.96991698120367</v>
+        <v>3.301777997398673</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.63203711882004</v>
+        <v>17.79430899947612</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.82766228799252</v>
+        <v>22.68505766061856</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.5016764992117</v>
+        <v>13.43618211822507</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.65113806153072</v>
+        <v>26.11451431920766</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.48654783405065</v>
+        <v>29.60329346383153</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.51887808007105</v>
+        <v>28.86484950495573</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.09601448599759</v>
+        <v>35.73989000142711</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>41.63840652947719</v>
+        <v>39.04410112413774</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.05876869694865</v>
+        <v>9.511092746917731</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.53575661070947</v>
+        <v>27.27979029348692</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.86472454330482</v>
+        <v>32.65158434627907</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.70409580703851</v>
+        <v>0.5684637601703493</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.57759216659011</v>
+        <v>28.55938610980783</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.56342904490259</v>
+        <v>33.57570193969425</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.4933397407185</v>
+        <v>-1.892147676297693</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.05951409337109</v>
+        <v>17.07131774384121</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.22718235148495</v>
+        <v>23.23142124164297</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.93776873070278</v>
+        <v>12.2386992302788</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.00843688024887</v>
+        <v>28.49628383808085</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.82052001965042</v>
+        <v>33.10303544031144</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.86451820891739</v>
+        <v>32.82416647531343</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.34781534124291</v>
+        <v>42.6069297165068</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.85935299012657</v>
+        <v>46.92258985742451</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.4314860920779</v>
+        <v>10.04681909777065</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.75678225739615</v>
+        <v>33.50773335515811</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.04332746099971</v>
+        <v>40.06853814138705</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.92198768904531</v>
+        <v>2.825696407861894</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.77891103811653</v>
+        <v>31.23965213721496</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.78223535148355</v>
+        <v>38.00705022632785</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.17191205514192</v>
+        <v>1.657467090659829</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.71809970551055</v>
+        <v>21.32981383107555</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.90590544842721</v>
+        <v>29.54138332087547</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.85730572338009</v>
+        <v>18.06922735468087</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.91378976271849</v>
+        <v>34.93917833478861</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.74127005736902</v>
+        <v>41.2259478363942</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.78712983413058</v>
+        <v>43.34023287100725</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.27921548519252</v>
+        <v>53.67872840341683</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.80794985097772</v>
+        <v>59.32087009087388</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.31998853226806</v>
+        <v>18.62206320238641</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>48.60428722420753</v>
+        <v>43.01259572032392</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.92670203136511</v>
+        <v>51.89087110285548</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.86932267308877</v>
+        <v>5.80871522085749</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>56.06968493517046</v>
+        <v>30.45123892581791</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>58.19348338102034</v>
+        <v>34.64219326242451</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.73009588828232</v>
+        <v>7.046685272961518</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>56.64794772904873</v>
+        <v>21.84877132509985</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>58.96626313426491</v>
+        <v>27.55814345122267</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>55.17978545986318</v>
+        <v>18.22826172885943</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.53929918833609</v>
+        <v>31.14122348001838</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>64.47779730808332</v>
+        <v>35.28877784054136</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>59.80265141510473</v>
+        <v>34.72238883864276</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>68.64686744972552</v>
+        <v>41.94352025861453</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>71.31992846390658</v>
+        <v>45.82830619500565</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>55.58248404968702</v>
+        <v>15.44769576881248</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>69.46025452806617</v>
+        <v>33.54651310724717</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>72.98041976162315</v>
+        <v>39.88456290238085</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.2668322683786</v>
+        <v>5.219119226188354</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>56.37709683855256</v>
+        <v>34.1844928548517</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.47456972463886</v>
+        <v>39.80652627720146</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>48.06374307105867</v>
+        <v>1.844143319134304</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.88438018485412</v>
+        <v>21.33901591923408</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>59.17404498816664</v>
+        <v>28.22402512690187</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.41923090052186</v>
+        <v>17.10700825103119</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.69894885896148</v>
+        <v>33.77483930825077</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>64.6135070789731</v>
+        <v>38.96166541686405</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>59.95177221854693</v>
+        <v>38.98379560599986</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>68.70136811540441</v>
+        <v>49.27429871206883</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>71.34316934903275</v>
+        <v>54.15776899488188</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>55.76209380007355</v>
+        <v>16.12945621673152</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>69.48580143333874</v>
+        <v>40.21391367187056</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>72.96256358323929</v>
+        <v>47.603013325106</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>54.44320859599873</v>
+        <v>7.041988291337645</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>62.53416349709781</v>
+        <v>36.49477600018156</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>64.6461529425852</v>
+        <v>43.88986843101175</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>54.66425429060888</v>
+        <v>4.943119887297772</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>63.46153810429169</v>
+        <v>25.23858986977596</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>65.76809937441982</v>
+        <v>34.17864921198107</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>62.2345539310469</v>
+        <v>22.71969255165465</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>69.49747514649178</v>
+        <v>40.06798927790881</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>71.42465285794063</v>
+        <v>46.94432398564365</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>66.79322312734389</v>
+        <v>49.69307943960231</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.54734100325234</v>
+        <v>60.62735568798072</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>78.20164455111166</v>
+        <v>66.80258765944929</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>62.59969061270036</v>
+        <v>24.69088368878896</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>76.2775996474106</v>
+        <v>49.8167019981579</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>79.78520574001421</v>
+        <v>59.54780899435163</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>141.6352546621235</v>
+        <v>2.36049848725197</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>150.6550902810527</v>
+        <v>24.95199808088702</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>152.9961046793759</v>
+        <v>29.16183098577605</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>145.0412323200399</v>
+        <v>3.111506732161622</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>154.848944639361</v>
+        <v>16.08432045192475</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>157.4047327769543</v>
+        <v>21.75760986505475</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>155.3463295300717</v>
+        <v>13.2773319349029</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>163.4388781463381</v>
+        <v>24.58357164540579</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>165.5757894576363</v>
+        <v>28.73666325671465</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>158.0394669468837</v>
+        <v>28.38384113359207</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>167.7797588564743</v>
+        <v>34.96182261238612</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>170.725685120823</v>
+        <v>38.82668826740729</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>150.429182641221</v>
+        <v>10.88236148871706</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>165.6986277438276</v>
+        <v>26.90210990007783</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>169.5788393507964</v>
+        <v>33.21651775846749</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>141.027849070238</v>
+        <v>3.519373660694932</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>149.9477471708909</v>
+        <v>30.26312654629461</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>152.2596539674082</v>
+        <v>35.91860323257531</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>144.3259781212022</v>
+        <v>-0.02695478295304454</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>154.0258651424411</v>
+        <v>17.45459252002232</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>156.5499491464508</v>
+        <v>24.33063236909766</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>154.5028840154674</v>
+        <v>14.03474283637721</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>162.5069355960189</v>
+        <v>28.94656214901966</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>164.6173693335867</v>
+        <v>34.16246990790776</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>157.1224711903186</v>
+        <v>34.30509278375926</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>166.7574284679895</v>
+        <v>43.85286405723065</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>169.6688155556499</v>
+        <v>48.70595729944596</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>149.5785907992595</v>
+        <v>13.28381278711659</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>164.6771179511894</v>
+        <v>35.05551209580987</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>168.5092370117924</v>
+        <v>42.45867052721732</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>145.7884237505814</v>
+        <v>5.614387525157102</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>154.6943519911652</v>
+        <v>32.89727436748837</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>157.0234966745799</v>
+        <v>40.24634951304016</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>149.4718271925304</v>
+        <v>3.306634765930138</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>159.1539855379068</v>
+        <v>21.63444836265164</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>161.6980301672066</v>
+        <v>30.47215574704042</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>159.8496809537644</v>
+        <v>19.85329079743439</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>167.8418956838761</v>
+        <v>35.48546232358875</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>169.9673340790843</v>
+        <v>42.31267317962176</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>162.5559332934278</v>
+        <v>45.12083615901856</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>172.2051312431502</v>
+        <v>55.30702864904873</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>175.1316475773136</v>
+        <v>61.40823659055786</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>155.0724671328707</v>
+        <v>21.96608648071107</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>170.1325554743105</v>
+        <v>44.81984774989001</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>174.0010197380164</v>
+        <v>54.46275301363282</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.18067450422425</v>
+        <v>-0.1860768780456716</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>52.45542369622707</v>
+        <v>24.96421089466028</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>54.56286172627202</v>
+        <v>28.69586591530132</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>43.92951125041706</v>
+        <v>1.178406173679889</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>52.93036927821701</v>
+        <v>16.58495583280733</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>55.2309516977744</v>
+        <v>21.7735437072726</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.32249888152287</v>
+        <v>12.07193430788534</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.75089371749294</v>
+        <v>25.53653377801339</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.67418915855819</v>
+        <v>29.23859064876813</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>55.96249461950226</v>
+        <v>28.66270360835916</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>64.88012176443293</v>
+        <v>35.99138795758628</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>67.53976670247275</v>
+        <v>39.46745795068038</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>51.64593623343612</v>
+        <v>8.518823639848277</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>65.65185120416808</v>
+        <v>27.37491017595625</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>69.14224773358534</v>
+        <v>33.08077048460656</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.55598374390156</v>
+        <v>-1.022142686501592</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>52.73889028305364</v>
+        <v>28.49357683962136</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>54.81976387509002</v>
+        <v>33.67738169740024</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.23993223442029</v>
+        <v>-3.859781298720542</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>53.14162517944645</v>
+        <v>16.25670697153556</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>55.41325682918718</v>
+        <v>22.64943703281456</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.53702688188044</v>
+        <v>11.13864567457681</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.88400394064598</v>
+        <v>28.37719240368963</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>60.78313171473881</v>
+        <v>33.1403540216206</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>56.08779037623435</v>
+        <v>33.14297761203071</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>64.90857956338535</v>
+        <v>43.51360294400109</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>67.53642782837618</v>
+        <v>47.99934139767414</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>51.80521054359296</v>
+        <v>9.448345244772618</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>65.65419516875036</v>
+        <v>34.29516553445538</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>69.10067630606001</v>
+        <v>41.10737806314351</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>51.24403891042148</v>
+        <v>1.090741891992678</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.40994894044484</v>
+        <v>31.03161204933732</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>61.50793999318631</v>
+        <v>38.04602436111563</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>51.3746089552622</v>
+        <v>-0.3911248504626599</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.2556648182545</v>
+        <v>20.45208873853985</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>62.5470554890717</v>
+        <v>28.98055225566944</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>58.90319104275979</v>
+        <v>16.99761926445716</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>66.23558556671018</v>
+        <v>34.86066885894481</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>68.1497319904469</v>
+        <v>41.37644398770458</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>63.4756988614706</v>
+        <v>43.96869071722703</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.30539688657898</v>
+        <v>54.94116281499359</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.94933431066019</v>
+        <v>60.79165283379686</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>59.1811362436427</v>
+        <v>18.22763334674351</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>72.98793632618688</v>
+        <v>44.03334835898983</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>76.46982766144505</v>
+        <v>53.26346218422384</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.09178110878828</v>
+        <v>-6.005589023514986</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.9961346900706</v>
+        <v>15.79691163324665</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.05385169530093</v>
+        <v>19.69160276984902</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.86846972368998</v>
+        <v>-5.965489086806215</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.46416919889335</v>
+        <v>6.36341939165931</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.70999182417057</v>
+        <v>11.70502768027048</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.42570801347608</v>
+        <v>3.713873642001891</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.51960422510146</v>
+        <v>14.47353611868043</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.39758988344615</v>
+        <v>18.33117550556524</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.56931040970012</v>
+        <v>18.18593063351868</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.08672191036332</v>
+        <v>24.32528579686642</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.67696634449371</v>
+        <v>28.01593037877928</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.34275496099234</v>
+        <v>1.105864869985506</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.71853579377769</v>
+        <v>16.40719530228235</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.12763500096285</v>
+        <v>22.31972208215674</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.75975965710879</v>
+        <v>-4.245676436802732</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.57748059549184</v>
+        <v>21.80434907958969</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.60987256168799</v>
+        <v>27.20564208546701</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>19.48478180561042</v>
+        <v>-8.330911272442897</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.98700709583858</v>
+        <v>8.600767322242273</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.20525344324022</v>
+        <v>15.22130012997552</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.95761581384023</v>
+        <v>5.215939155353176</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.97479862972038</v>
+        <v>19.66905656533343</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.82974092955872</v>
+        <v>24.65601949882223</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.00693734885528</v>
+        <v>24.81287540508477</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.43346009500689</v>
+        <v>33.93148725556051</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>41.99363252460874</v>
+        <v>38.64902585466702</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.80117588556367</v>
+        <v>4.125781435226852</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.02878178705505</v>
+        <v>25.2785883809501</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>44.3961291335232</v>
+        <v>32.37001236383934</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.55828569122114</v>
+        <v>-0.690370751434866</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.35751486995451</v>
+        <v>25.93986181467663</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.40304775726276</v>
+        <v>32.99912053103519</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.73067042761996</v>
+        <v>-3.498146431125413</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.21062256141371</v>
+        <v>14.31616466076412</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.44429397159365</v>
+        <v>22.85837731687784</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.42891320084189</v>
+        <v>12.51662455931393</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.43004988954985</v>
+        <v>27.7261032443633</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.29644589464421</v>
+        <v>34.29357633132948</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.48403404185736</v>
+        <v>36.99423701328999</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.91534164586064</v>
+        <v>46.72852692590858</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.48648841078207</v>
+        <v>52.68849016142921</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.24945168324021</v>
+        <v>14.20880234067069</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>48.4333782853133</v>
+        <v>36.47183687084578</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.82906755550562</v>
+        <v>45.75792140843369</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>142.1208705303404</v>
+        <v>-0.9047092690970118</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>151.1249266663424</v>
+        <v>21.27040495620168</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>153.4632167321283</v>
+        <v>25.54315482811965</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>145.5523585284021</v>
+        <v>-0.4447192124230632</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>155.3429011024084</v>
+        <v>12.13121457177503</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>157.8957453117796</v>
+        <v>17.8720118613879</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>155.8552708178695</v>
+        <v>9.511352419476172</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>163.933642758391</v>
+        <v>20.46959377688651</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>166.0680875124642</v>
+        <v>24.68232091113279</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>158.5331823402531</v>
+        <v>24.47970276180318</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>168.2560296963451</v>
+        <v>30.91383185525899</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>171.1983717470664</v>
+        <v>34.83466058403035</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>150.9204116881065</v>
+        <v>7.342375175280964</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>166.1632194496645</v>
+        <v>22.9219195584163</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>170.0390438698562</v>
+        <v>29.3088501870008</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>141.5051876209017</v>
+        <v>-0.2469174001616672</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>150.4094964283246</v>
+        <v>26.07208194562025</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>152.7187293210216</v>
+        <v>31.82796517529211</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>144.8286190928706</v>
+        <v>-4.049734657168287</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>154.5115429753089</v>
+        <v>13.02882023285204</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>157.0327368302453</v>
+        <v>20.01493040637908</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>155.0033537563957</v>
+        <v>9.741190129372864</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>162.9933984960364</v>
+        <v>24.30059378233285</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>165.1014100227353</v>
+        <v>29.6131907787347</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>157.6080293699002</v>
+        <v>29.84059191137592</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>167.2257513658818</v>
+        <v>39.244114755647</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>170.1336181143391</v>
+        <v>44.17647874000578</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>150.061777988466</v>
+        <v>9.178235106074332</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>165.1339900775636</v>
+        <v>30.4986112610715</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>168.9618076254308</v>
+        <v>38.02088545149643</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>146.230761111607</v>
+        <v>2.220926407426841</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>155.1209443948008</v>
+        <v>29.09057778266818</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>157.4472618539889</v>
+        <v>36.53199186558379</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>149.9371410698467</v>
+        <v>-0.3034647733785825</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>159.6021618229416</v>
+        <v>17.63178082911855</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>162.1431537005599</v>
+        <v>26.56838055224223</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>160.3116689265079</v>
+        <v>15.97435997701905</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>168.289731382966</v>
+        <v>31.26339300387723</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>170.4126166659713</v>
+        <v>38.17906520227011</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>163.0031487552939</v>
+        <v>41.08203571094094</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>172.6348586177768</v>
+        <v>51.11666247183371</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>175.5576945437935</v>
+        <v>57.28953281527775</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>155.5179195106912</v>
+        <v>18.28380532802952</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>170.5514307244552</v>
+        <v>40.69380869274275</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>174.4153086549883</v>
+        <v>50.44521179416174</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>21.19890420098004</v>
+        <v>6.115368472095675</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.24152536096907</v>
+        <v>29.6744753660418</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.33123389541378</v>
+        <v>33.51175916637935</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>20.03628987524181</v>
+        <v>8.030099997369813</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.78198121261461</v>
+        <v>21.96605796441798</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.06269687752631</v>
+        <v>27.26866861542869</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.72928809591125</v>
+        <v>18.58686381106904</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>33.94706145808986</v>
+        <v>30.76971827843906</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.85423775915503</v>
+        <v>34.58367806660485</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.90487162927878</v>
+        <v>34.10807185063975</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>40.57461188379972</v>
+        <v>40.78969219370983</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.20563465670683</v>
+        <v>44.3868334355802</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.57492169912572</v>
+        <v>15.53567096459893</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.1857905320036</v>
+        <v>32.62548456285953</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>45.64604381387713</v>
+        <v>38.49867644354271</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.83752130929841</v>
+        <v>5.228172979197611</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.79165281552358</v>
+        <v>32.98210621740377</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.85535815372994</v>
+        <v>38.16842786964123</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.62181516581626</v>
+        <v>2.680326164475911</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.2720182508159</v>
+        <v>21.15640069311899</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.52441689909097</v>
+        <v>27.56586084846439</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>27.22813450225997</v>
+        <v>17.25141263808157</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.36752733720168</v>
+        <v>33.0643214769735</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.25104560055792</v>
+        <v>37.85639357742235</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>32.3094079723471</v>
+        <v>37.85715889702793</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>40.88615706444133</v>
+        <v>47.47538943140759</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>43.48619681782841</v>
+        <v>52.02416517493339</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.00209687493209</v>
+        <v>15.82029930885754</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.46165004246681</v>
+        <v>38.69673438571925</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.87904620546723</v>
+        <v>45.5437934516241</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.68279308804074</v>
+        <v>7.27646077995664</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.6175437474646</v>
+        <v>35.52498467765587</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.69482736743925</v>
+        <v>42.40767561217044</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>27.91161518093162</v>
+        <v>5.907951831767759</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.53852921218238</v>
+        <v>25.17782625526642</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>38.80682669975731</v>
+        <v>33.56554550537406</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.74643761240009</v>
+        <v>22.89903020607036</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.86901161394178</v>
+        <v>39.39132563882194</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.76433480185293</v>
+        <v>45.80533950077586</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>39.83380840191266</v>
+        <v>48.34861599798205</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.41463799094232</v>
+        <v>58.57573180645689</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>51.02669138299665</v>
+        <v>64.39736840552187</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.49830975323914</v>
+        <v>24.23635104373351</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>49.91215464275325</v>
+        <v>48.14489406775769</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.3587890652916</v>
+        <v>57.23492157271977</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.29521044136483</v>
+        <v>0.002081435124175357</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.52645470466713</v>
+        <v>25.12575611408303</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>44.62896636780101</v>
+        <v>28.93187765054157</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.69309016726369</v>
+        <v>1.555062855388201</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.64624904076737</v>
+        <v>16.95133351055787</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>44.94166207012856</v>
+        <v>22.21106920180688</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>40.83197011060501</v>
+        <v>12.45719991840923</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.22113429030798</v>
+        <v>25.90971560054124</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>50.14013497846126</v>
+        <v>29.67537125358061</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>45.72664637267987</v>
+        <v>29.16634020177158</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>54.5950037698702</v>
+        <v>36.45526880047879</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.24647402443078</v>
+        <v>39.99813884859653</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.77822787882683</v>
+        <v>9.025289528165871</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>55.70935024334052</v>
+        <v>27.85857601786896</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>59.19245728397001</v>
+        <v>33.65570954052269</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.78674574482908</v>
+        <v>-0.7991540097665997</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.92686657167577</v>
+        <v>28.67716038924237</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>45.002909224706</v>
+        <v>33.93592822803501</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.12372354178027</v>
+        <v>-3.456027516885495</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.97851300852389</v>
+        <v>16.64260605916593</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.24508125145663</v>
+        <v>23.10472933552883</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>41.16999237642384</v>
+        <v>11.54089734292636</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.47839274262358</v>
+        <v>28.76015204096035</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>50.3733077879825</v>
+        <v>33.58584664423725</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>45.97258910571283</v>
+        <v>33.64070758631808</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.74496103093032</v>
+        <v>43.95160688237159</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>57.364806599081</v>
+        <v>48.50034633934064</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.05367848306301</v>
+        <v>9.939530189345181</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>55.82910453213019</v>
+        <v>34.75196869752265</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.26847941771797</v>
+        <v>41.65347955250127</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>41.56862904412667</v>
+        <v>0.9859512861209687</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>49.69029688605286</v>
+        <v>30.8888786065918</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>51.78301539052978</v>
+        <v>37.95841257330396</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.35478086937724</v>
+        <v>-0.350029809799608</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>50.18728519319885</v>
+        <v>20.47690817313288</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>52.4731496070905</v>
+        <v>29.05214589093651</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>48.63236245401451</v>
+        <v>17.02947514080752</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>55.92481094416925</v>
+        <v>34.87353239894625</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>57.83436921867614</v>
+        <v>41.43342640166011</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>53.45127129684852</v>
+        <v>44.08559364029118</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.23048260050064</v>
+        <v>55.00694768159106</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>64.8658180076152</v>
+        <v>60.90193987896667</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>49.51540725942438</v>
+        <v>18.35046804034922</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>63.24625093287021</v>
+        <v>44.12378187115094</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>66.72021379995073</v>
+        <v>53.42021517164201</v>
       </c>
     </row>
   </sheetData>
